--- a/dist/cosasreports_emx2.xlsx
+++ b/dist/cosasreports_emx2.xlsx
@@ -10,13 +10,14 @@
     <sheet name="molgenis" sheetId="1" r:id="rId1"/>
     <sheet name="datahandling" sheetId="2" r:id="rId2"/>
     <sheet name="status" sheetId="3" r:id="rId3"/>
+    <sheet name="keytypes" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="148">
   <si>
     <t>template</t>
   </si>
@@ -27,6 +28,9 @@
     <t>status</t>
   </si>
   <si>
+    <t>keytypes</t>
+  </si>
+  <si>
     <t>value</t>
   </si>
   <si>
@@ -72,6 +76,9 @@
     <t>http://purl.obolibrary.org/obo/NCIT_C25688</t>
   </si>
   <si>
+    <t>http://semanticscience.org/resource/SIO_000762</t>
+  </si>
+  <si>
     <t>The information contained in a data field. It may represent a numeric quantity, a textual characterization, a date or time measurement, or some other state, depending on the nature of the attribute.</t>
   </si>
   <si>
@@ -93,6 +100,9 @@
     <t>A condition or state at a particular time.</t>
   </si>
   <si>
+    <t>A database key is an informational entity whose value is constructed from one or more database columns.</t>
+  </si>
+  <si>
     <t>tableName</t>
   </si>
   <si>
@@ -430,6 +440,27 @@
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C47896</t>
+  </si>
+  <si>
+    <t>foreign database key</t>
+  </si>
+  <si>
+    <t>primary database key</t>
+  </si>
+  <si>
+    <t>A foreign database key is a database key that refers to a key in some table.</t>
+  </si>
+  <si>
+    <t>A primary database key is a database key that identifies every row of a table.</t>
+  </si>
+  <si>
+    <t>SIO</t>
+  </si>
+  <si>
+    <t>http://semanticscience.org/resource/SIO_000764</t>
+  </si>
+  <si>
+    <t>http://semanticscience.org/resource/SIO_000763</t>
   </si>
 </sst>
 </file>
@@ -789,7 +820,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -797,37 +828,37 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -835,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -843,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -855,10 +886,10 @@
         <v>0</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -866,16 +897,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -883,16 +914,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -900,16 +931,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -917,16 +948,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -937,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -951,10 +982,24 @@
         <v>0</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -967,6 +1012,7 @@
     <hyperlink ref="J7" r:id="rId6"/>
     <hyperlink ref="J8" r:id="rId7"/>
     <hyperlink ref="J9" r:id="rId8"/>
+    <hyperlink ref="J10" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -982,410 +1028,410 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D2">
         <v>3436</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D3">
         <v>3283</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D6">
         <v>2422</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D7">
         <v>2421</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D8">
         <v>3431</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D9">
         <v>3096</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D11">
         <v>3695</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D12">
         <v>3357</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D13">
         <v>222</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D14">
         <v>221</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D16">
         <v>1812</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D17">
         <v>214</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D18">
         <v>148</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D19">
         <v>3081</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D20">
         <v>153</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D21">
         <v>3802</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D22">
         <v>3359</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D23">
         <v>3080</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D24">
         <v>2428</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1428,138 +1474,138 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1574,4 +1620,72 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2">
+        <v>500</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3">
+        <v>499</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>